--- a/Copie de FLUX_CADASTRE(2).xlsx
+++ b/Copie de FLUX_CADASTRE(2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abalo\Desktop\A ALL Projet\projet alab\projet cadastre\projet_cadastre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7692CB-2DE5-45E9-93E6-D246DB815B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8E5B74-83A9-41AE-9282-5360757520F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -436,6 +436,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -457,18 +469,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,6 +487,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>255841</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>18241</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94463EE7-0820-66AB-FDC1-EDE1469222B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14065624" y="770965"/>
+          <a:ext cx="6190476" cy="1990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1041,9 +1090,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1055,20 +1104,21 @@
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -4601,33 +4651,33 @@
       <c r="H148" s="4"/>
     </row>
     <row r="149" spans="1:8" ht="15.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="11" t="s">
+      <c r="A149" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C149" s="14"/>
-      <c r="D149" s="14"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="18"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
     <row r="150" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A150" s="12"/>
+      <c r="A150" s="16"/>
       <c r="B150" s="1"/>
-      <c r="C150" s="15" t="s">
+      <c r="C150" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D150" s="15"/>
+      <c r="D150" s="19"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
     <row r="151" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A151" s="12"/>
+      <c r="A151" s="16"/>
       <c r="B151" s="1"/>
       <c r="C151" s="3" t="s">
         <v>36</v>
@@ -4639,64 +4689,64 @@
       <c r="H151" s="1"/>
     </row>
     <row r="152" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A152" s="12"/>
+      <c r="A152" s="16"/>
       <c r="B152" s="1"/>
       <c r="C152" s="2"/>
-      <c r="D152" s="14" t="s">
+      <c r="D152" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E152" s="14"/>
+      <c r="E152" s="18"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
     <row r="153" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A153" s="12"/>
+      <c r="A153" s="16"/>
       <c r="B153" s="1"/>
       <c r="C153" s="2"/>
-      <c r="D153" s="14" t="s">
+      <c r="D153" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E153" s="14"/>
+      <c r="E153" s="18"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
     <row r="154" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A154" s="12"/>
+      <c r="A154" s="16"/>
       <c r="B154" s="1"/>
       <c r="C154" s="2"/>
       <c r="D154" s="1"/>
-      <c r="E154" s="9" t="s">
+      <c r="E154" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F154" s="10"/>
+      <c r="F154" s="14"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
     <row r="155" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A155" s="12"/>
+      <c r="A155" s="16"/>
       <c r="B155" s="1"/>
       <c r="C155" s="2"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="9" t="s">
+      <c r="F155" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G155" s="10"/>
+      <c r="G155" s="14"/>
       <c r="H155" s="1"/>
     </row>
     <row r="156" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A156" s="13"/>
+      <c r="A156" s="17"/>
       <c r="B156" s="1"/>
       <c r="C156" s="2"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
-      <c r="G156" s="9" t="s">
+      <c r="G156" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H156" s="10"/>
+      <c r="H156" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4711,6 +4761,7 @@
     <mergeCell ref="D153:E153"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4718,7 +4769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B4D652-13DE-4968-A95D-D37E1992550B}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -4749,160 +4800,160 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C11" t="s">
@@ -4919,30 +4970,30 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="9" t="s">
         <v>53</v>
       </c>
       <c r="H13" t="s">
@@ -4953,203 +5004,203 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="J21" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H25" s="19" t="s">
+      <c r="H25" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H26" s="19" t="s">
+      <c r="H26" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="J26" s="19" t="s">
+      <c r="J26" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="J27" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J28" s="19" t="s">
+      <c r="J28" s="9" t="s">
         <v>73</v>
       </c>
     </row>

--- a/Copie de FLUX_CADASTRE(2).xlsx
+++ b/Copie de FLUX_CADASTRE(2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abalo\Desktop\A ALL Projet\projet alab\projet cadastre\projet_cadastre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8E5B74-83A9-41AE-9282-5360757520F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55FBDEF-F664-4A2C-A62A-27AC5143123B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1090,9 +1090,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Copie de FLUX_CADASTRE(2).xlsx
+++ b/Copie de FLUX_CADASTRE(2).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abalo\Desktop\A ALL Projet\projet alab\projet cadastre\projet_cadastre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55FBDEF-F664-4A2C-A62A-27AC5143123B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB29F62C-3A09-49FC-88BF-66F67FF16A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1091,8 +1091,8 @@
   <dimension ref="A1:H156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
